--- a/外盘价格涨跌统计(18年清明).xlsx
+++ b/外盘价格涨跌统计(18年清明).xlsx
@@ -15,12 +15,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcCompleted="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>美元指数</t>
   </si>
@@ -191,18 +191,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>伦敦现货金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伦敦现货银</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>布油01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>标的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -215,10 +203,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.8 15:00价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>美原油05</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -251,11 +235,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>美10年期国债收益率（未更新4.4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>日橡胶09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMEX金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMEX银</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美10年期国债收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布油06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6 收盘价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源：富远行情、Wind</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -263,17 +267,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="#,##0.0;[Red]#,##0.0"/>
-    <numFmt numFmtId="180" formatCode="#,##0.0000;[Red]#,##0.0000"/>
-    <numFmt numFmtId="181" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
-    <numFmt numFmtId="183" formatCode="0.000"/>
-    <numFmt numFmtId="184" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -443,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,19 +466,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -489,24 +484,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,22 +505,34 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,7 +709,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20339142">
-          <a:off x="11206803" y="3218330"/>
+          <a:off x="12406953" y="3218330"/>
           <a:ext cx="5551502" cy="767854"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1072,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1089,20 +1084,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="21.75" x14ac:dyDescent="0.15">
-      <c r="L2" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="L2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -1111,11 +1106,11 @@
         <v>44</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M3" s="5" t="str">
         <f>C3</f>
-        <v>4.8 15:00价格</v>
+        <v>4.6 收盘价</v>
       </c>
       <c r="N3" s="5" t="str">
         <f>D3</f>
@@ -1134,414 +1129,414 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>93.8</v>
+        <v>90.135599999999997</v>
       </c>
       <c r="D4" s="3">
         <v>90.21</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <f>C4-D4</f>
-        <v>3.5900000000000034</v>
-      </c>
-      <c r="F4" s="9">
+        <v>-7.4399999999997135E-2</v>
+      </c>
+      <c r="F4" s="7">
         <f>E4/D4</f>
-        <v>3.9796031482097372E-2</v>
+        <v>-8.2474226804120539E-4</v>
       </c>
       <c r="H4">
         <f>RANK(F4,$F$4:$F$33)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="L4" s="19" t="str">
+      <c r="L4" s="14" t="str">
         <f>INDEX($B$4:$B$33,MATCH(I4,$H$4:$H$33,0))</f>
-        <v>日橡胶09</v>
-      </c>
-      <c r="M4" s="30">
+        <v>LME电铝</v>
+      </c>
+      <c r="M4" s="20">
         <f t="shared" ref="M4:M33" si="0">VLOOKUP($L4,$B$3:$F$33,2,0)</f>
-        <v>207.4</v>
-      </c>
-      <c r="N4" s="30">
+        <v>2054</v>
+      </c>
+      <c r="N4" s="20">
         <f t="shared" ref="N4:N33" si="1">VLOOKUP($L4,$B$3:$F$33,3,0)</f>
-        <v>178.6</v>
-      </c>
-      <c r="O4" s="20">
+        <v>1991.5</v>
+      </c>
+      <c r="O4" s="21">
         <f t="shared" ref="O4:O33" si="2">VLOOKUP($L4,$B$3:$F$33,4,0)</f>
-        <v>28.800000000000011</v>
-      </c>
-      <c r="P4" s="21">
+        <v>62.5</v>
+      </c>
+      <c r="P4" s="15">
         <f t="shared" ref="P4:P33" si="3">VLOOKUP($L4,$B$3:$F$33,5,0)</f>
-        <v>0.16125419932810758</v>
+        <v>3.1383379362289729E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.1733</v>
+        <v>1.2282</v>
       </c>
       <c r="D5" s="4">
         <v>1.2259</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f t="shared" ref="E5:E33" si="4">C5-D5</f>
-        <v>-5.259999999999998E-2</v>
-      </c>
-      <c r="F5" s="9">
+        <v>2.2999999999999687E-3</v>
+      </c>
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F33" si="5">E5/D5</f>
-        <v>-4.2907251814993053E-2</v>
+        <v>1.8761726078798994E-3</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H33" si="6">RANK(F5,$F$4:$F$33)</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="L5" s="16" t="str">
+      <c r="L5" s="13" t="str">
         <f t="shared" ref="L5:L33" si="7">INDEX($B$4:$B$33,MATCH(I5,$H$4:$H$33,0))</f>
-        <v>原糖05</v>
-      </c>
-      <c r="M5" s="17">
-        <f t="shared" si="0"/>
-        <v>13.98</v>
-      </c>
-      <c r="N5" s="17">
-        <f t="shared" si="1"/>
-        <v>12.39</v>
-      </c>
-      <c r="O5" s="18">
-        <f t="shared" si="2"/>
-        <v>1.5899999999999999</v>
-      </c>
-      <c r="P5" s="22">
-        <f t="shared" si="3"/>
-        <v>0.12832929782082322</v>
+        <v>马棕油06</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="0"/>
+        <v>2504</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="1"/>
+        <v>2440</v>
+      </c>
+      <c r="O5" s="23">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="P5" s="16">
+        <f t="shared" si="3"/>
+        <v>2.6229508196721311E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C6">
-        <v>112.65</v>
+        <v>106.925</v>
       </c>
       <c r="D6" s="4">
         <v>106.51</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" si="4"/>
-        <v>6.1400000000000006</v>
-      </c>
-      <c r="F6" s="9">
-        <f t="shared" si="5"/>
-        <v>5.7647169279879826E-2</v>
+      <c r="E6" s="9">
+        <f t="shared" si="4"/>
+        <v>0.41499999999999204</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="5"/>
+        <v>3.8963477607735614E-3</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
-      <c r="L6" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>马棕油06</v>
-      </c>
-      <c r="M6" s="17">
-        <f t="shared" si="0"/>
-        <v>2731</v>
-      </c>
-      <c r="N6" s="17">
-        <f t="shared" si="1"/>
-        <v>2440</v>
-      </c>
-      <c r="O6" s="18">
-        <f t="shared" si="2"/>
-        <v>291</v>
-      </c>
-      <c r="P6" s="22">
-        <f t="shared" si="3"/>
-        <v>0.11926229508196722</v>
+      <c r="L6" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>富时100</v>
+      </c>
+      <c r="M6" s="22">
+        <f t="shared" si="0"/>
+        <v>7183.64</v>
+      </c>
+      <c r="N6" s="22">
+        <f t="shared" si="1"/>
+        <v>7027.13</v>
+      </c>
+      <c r="O6" s="23">
+        <f t="shared" si="2"/>
+        <v>156.51000000000022</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" si="3"/>
+        <v>2.2272250548943908E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C7">
-        <v>6.6512000000000002</v>
-      </c>
-      <c r="D7" s="10">
+        <v>6.3133999999999997</v>
+      </c>
+      <c r="D7" s="8">
         <v>6.29</v>
       </c>
-      <c r="E7" s="11">
-        <f t="shared" si="4"/>
-        <v>0.36120000000000019</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="5"/>
-        <v>5.7424483306836277E-2</v>
+      <c r="E7" s="9">
+        <f t="shared" si="4"/>
+        <v>2.3399999999999643E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="5"/>
+        <v>3.7201907790142515E-3</v>
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
-      <c r="L7" s="16" t="str">
+      <c r="L7" s="13" t="str">
         <f t="shared" si="7"/>
         <v>德DAX</v>
       </c>
-      <c r="M7" s="17">
-        <f t="shared" si="0"/>
-        <v>12955.94</v>
-      </c>
-      <c r="N7" s="17">
+      <c r="M7" s="22">
+        <f t="shared" si="0"/>
+        <v>12241.27</v>
+      </c>
+      <c r="N7" s="22">
         <f t="shared" si="1"/>
         <v>11975.26</v>
       </c>
-      <c r="O7" s="18">
-        <f t="shared" si="2"/>
-        <v>980.68000000000029</v>
-      </c>
-      <c r="P7" s="22">
-        <f t="shared" si="3"/>
-        <v>8.1892167685712072E-2</v>
+      <c r="O7" s="23">
+        <f t="shared" si="2"/>
+        <v>266.01000000000022</v>
+      </c>
+      <c r="P7" s="16">
+        <f t="shared" si="3"/>
+        <v>2.2213296412771016E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C8">
-        <v>0.77739999999999998</v>
+        <v>0.76759999999999995</v>
       </c>
       <c r="D8" s="4">
         <v>0.76929999999999998</v>
       </c>
-      <c r="E8" s="11">
-        <f t="shared" si="4"/>
-        <v>8.0999999999999961E-3</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="5"/>
-        <v>1.052905238528532E-2</v>
+      <c r="E8" s="9">
+        <f t="shared" si="4"/>
+        <v>-1.7000000000000348E-3</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="5"/>
+        <v>-2.2098011178994345E-3</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="L8" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>LME电铝</v>
-      </c>
-      <c r="M8" s="26">
-        <f t="shared" si="0"/>
-        <v>2146.5</v>
-      </c>
-      <c r="N8" s="26">
-        <f t="shared" si="1"/>
-        <v>1991.5</v>
-      </c>
-      <c r="O8" s="18">
-        <f t="shared" si="2"/>
-        <v>155</v>
-      </c>
-      <c r="P8" s="22">
-        <f t="shared" si="3"/>
-        <v>7.7830780818478537E-2</v>
+      <c r="L8" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>美豆粕05</v>
+      </c>
+      <c r="M8" s="22">
+        <f t="shared" si="0"/>
+        <v>386.5</v>
+      </c>
+      <c r="N8" s="22">
+        <f t="shared" si="1"/>
+        <v>380.5</v>
+      </c>
+      <c r="O8" s="23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="P8" s="16">
+        <f t="shared" si="3"/>
+        <v>1.5768725361366621E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2549.33</v>
+        <v>2604.4699999999998</v>
       </c>
       <c r="D9" s="4">
         <v>2614.4499999999998</v>
       </c>
-      <c r="E9" s="11">
-        <f t="shared" si="4"/>
-        <v>-65.119999999999891</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="5"/>
-        <v>-2.4907724377976209E-2</v>
+      <c r="E9" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9800000000000182</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="5"/>
+        <v>-3.8172464571898561E-3</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I9">
         <v>6</v>
       </c>
-      <c r="L9" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>富时100</v>
-      </c>
-      <c r="M9" s="26">
-        <f t="shared" si="0"/>
-        <v>7522.87</v>
-      </c>
-      <c r="N9" s="26">
-        <f t="shared" si="1"/>
-        <v>7027.13</v>
-      </c>
-      <c r="O9" s="18">
-        <f t="shared" si="2"/>
-        <v>495.73999999999978</v>
-      </c>
-      <c r="P9" s="22">
-        <f t="shared" si="3"/>
-        <v>7.0546581605861816E-2</v>
+      <c r="L9" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>日经225</v>
+      </c>
+      <c r="M9" s="22">
+        <f t="shared" si="0"/>
+        <v>21567.52</v>
+      </c>
+      <c r="N9" s="22">
+        <f t="shared" si="1"/>
+        <v>21319.55</v>
+      </c>
+      <c r="O9" s="23">
+        <f t="shared" si="2"/>
+        <v>247.97000000000116</v>
+      </c>
+      <c r="P9" s="16">
+        <f t="shared" si="3"/>
+        <v>1.1631108536531079E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>22773.67</v>
+        <v>23932.76</v>
       </c>
       <c r="D10" s="4">
         <v>24033.360000000001</v>
       </c>
-      <c r="E10" s="11">
-        <f t="shared" si="4"/>
-        <v>-1259.6900000000023</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" si="5"/>
-        <v>-5.241422755702916E-2</v>
+      <c r="E10" s="9">
+        <f t="shared" si="4"/>
+        <v>-100.60000000000218</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="5"/>
+        <v>-4.1858483374776637E-3</v>
       </c>
       <c r="H10">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>7</v>
       </c>
-      <c r="L10" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>美元兑日元</v>
-      </c>
-      <c r="M10" s="26">
-        <f t="shared" si="0"/>
-        <v>112.65</v>
-      </c>
-      <c r="N10" s="26">
-        <f t="shared" si="1"/>
-        <v>106.51</v>
-      </c>
-      <c r="O10" s="18">
-        <f t="shared" si="2"/>
-        <v>6.1400000000000006</v>
-      </c>
-      <c r="P10" s="22">
-        <f t="shared" si="3"/>
-        <v>5.7647169279879826E-2</v>
+      <c r="L10" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>美棉05</v>
+      </c>
+      <c r="M10" s="22">
+        <f t="shared" si="0"/>
+        <v>82.69</v>
+      </c>
+      <c r="N10" s="22">
+        <f t="shared" si="1"/>
+        <v>82.13</v>
+      </c>
+      <c r="O10" s="23">
+        <f t="shared" si="2"/>
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="3"/>
+        <v>6.8184585413369331E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>6590.18</v>
+        <v>6915.11</v>
       </c>
       <c r="D11" s="4">
         <v>6941.28</v>
       </c>
-      <c r="E11" s="11">
-        <f t="shared" si="4"/>
-        <v>-351.09999999999945</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="5"/>
-        <v>-5.0581448954659582E-2</v>
+      <c r="E11" s="9">
+        <f t="shared" si="4"/>
+        <v>-26.170000000000073</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="5"/>
+        <v>-3.7701980038263943E-3</v>
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I11">
         <v>8</v>
       </c>
-      <c r="L11" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>离岸人民币</v>
-      </c>
-      <c r="M11" s="26">
-        <f t="shared" si="0"/>
-        <v>6.6512000000000002</v>
-      </c>
-      <c r="N11" s="26">
-        <f t="shared" si="1"/>
-        <v>6.29</v>
-      </c>
-      <c r="O11" s="18">
-        <f t="shared" si="2"/>
-        <v>0.36120000000000019</v>
-      </c>
-      <c r="P11" s="22">
-        <f t="shared" si="3"/>
-        <v>5.7424483306836277E-2</v>
+      <c r="L11" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>恒指</v>
+      </c>
+      <c r="M11" s="22">
+        <f t="shared" si="0"/>
+        <v>29844.94</v>
+      </c>
+      <c r="N11" s="22">
+        <f t="shared" si="1"/>
+        <v>29686.76</v>
+      </c>
+      <c r="O11" s="23">
+        <f t="shared" si="2"/>
+        <v>158.18000000000029</v>
+      </c>
+      <c r="P11" s="16">
+        <f t="shared" si="3"/>
+        <v>5.3283012359718711E-3</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>12955.94</v>
+        <v>12241.27</v>
       </c>
       <c r="D12" s="4">
         <v>11975.26</v>
       </c>
-      <c r="E12" s="11">
-        <f t="shared" si="4"/>
-        <v>980.68000000000029</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" si="5"/>
-        <v>8.1892167685712072E-2</v>
+      <c r="E12" s="9">
+        <f t="shared" si="4"/>
+        <v>266.01000000000022</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="5"/>
+        <v>2.2213296412771016E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
@@ -1550,194 +1545,194 @@
       <c r="I12">
         <v>9</v>
       </c>
-      <c r="L12" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>美元指数</v>
-      </c>
-      <c r="M12" s="22">
-        <f t="shared" si="0"/>
-        <v>93.8</v>
-      </c>
-      <c r="N12" s="22">
-        <f t="shared" si="1"/>
-        <v>90.21</v>
-      </c>
-      <c r="O12" s="22">
-        <f t="shared" si="2"/>
-        <v>3.5900000000000034</v>
-      </c>
-      <c r="P12" s="22">
-        <f t="shared" si="3"/>
-        <v>3.9796031482097372E-2</v>
+      <c r="L12" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>日橡胶09</v>
+      </c>
+      <c r="M12" s="24">
+        <f t="shared" si="0"/>
+        <v>179.4</v>
+      </c>
+      <c r="N12" s="24">
+        <f t="shared" si="1"/>
+        <v>178.6</v>
+      </c>
+      <c r="O12" s="24">
+        <f t="shared" si="2"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" si="3"/>
+        <v>4.4792833146697171E-3</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C13">
-        <v>7522.87</v>
+        <v>7183.64</v>
       </c>
       <c r="D13" s="4">
         <v>7027.13</v>
       </c>
-      <c r="E13" s="11">
-        <f t="shared" si="4"/>
-        <v>495.73999999999978</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" si="5"/>
-        <v>7.0546581605861816E-2</v>
+      <c r="E13" s="9">
+        <f t="shared" si="4"/>
+        <v>156.51000000000022</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="5"/>
+        <v>2.2272250548943908E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
-      <c r="L13" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>美豆油05</v>
-      </c>
-      <c r="M13" s="17">
-        <f t="shared" si="0"/>
-        <v>33.19</v>
-      </c>
-      <c r="N13" s="17">
-        <f t="shared" si="1"/>
-        <v>32.32</v>
-      </c>
-      <c r="O13" s="18">
-        <f t="shared" si="2"/>
-        <v>0.86999999999999744</v>
-      </c>
-      <c r="P13" s="22">
-        <f t="shared" si="3"/>
-        <v>2.6918316831683088E-2</v>
+      <c r="L13" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>美元兑日元</v>
+      </c>
+      <c r="M13" s="22">
+        <f t="shared" si="0"/>
+        <v>106.925</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" si="1"/>
+        <v>106.51</v>
+      </c>
+      <c r="O13" s="23">
+        <f t="shared" si="2"/>
+        <v>0.41499999999999204</v>
+      </c>
+      <c r="P13" s="16">
+        <f t="shared" si="3"/>
+        <v>3.8963477607735614E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C14">
-        <v>20690.71</v>
+        <v>21567.52</v>
       </c>
       <c r="D14" s="4">
         <v>21319.55</v>
       </c>
-      <c r="E14" s="11">
-        <f t="shared" si="4"/>
-        <v>-628.84000000000015</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" si="5"/>
-        <v>-2.949593213740441E-2</v>
+      <c r="E14" s="9">
+        <f t="shared" si="4"/>
+        <v>247.97000000000116</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="5"/>
+        <v>1.1631108536531079E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>11</v>
       </c>
-      <c r="L14" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>伦敦现货银</v>
+      <c r="L14" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>离岸人民币</v>
       </c>
       <c r="M14" s="26">
         <f t="shared" si="0"/>
-        <v>16.79</v>
+        <v>6.3133999999999997</v>
       </c>
       <c r="N14" s="26">
         <f t="shared" si="1"/>
-        <v>16.420000000000002</v>
-      </c>
-      <c r="O14" s="18">
-        <f t="shared" si="2"/>
-        <v>0.36999999999999744</v>
-      </c>
-      <c r="P14" s="22">
-        <f t="shared" si="3"/>
-        <v>2.2533495736906054E-2</v>
+        <v>6.29</v>
+      </c>
+      <c r="O14" s="27">
+        <f t="shared" si="2"/>
+        <v>2.3399999999999643E-2</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="3"/>
+        <v>3.7201907790142515E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>28458.04</v>
+        <v>29844.94</v>
       </c>
       <c r="D15" s="4">
         <v>29686.76</v>
       </c>
-      <c r="E15" s="11">
-        <f t="shared" si="4"/>
-        <v>-1228.7199999999975</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="5"/>
-        <v>-4.138949484551354E-2</v>
+      <c r="E15" s="9">
+        <f t="shared" si="4"/>
+        <v>158.18000000000029</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="5"/>
+        <v>5.3283012359718711E-3</v>
       </c>
       <c r="H15">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>12</v>
       </c>
-      <c r="L15" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>美10年期国债收益率（未更新4.4)</v>
-      </c>
-      <c r="M15" s="31">
-        <f t="shared" si="0"/>
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="N15" s="31">
-        <f t="shared" si="1"/>
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="O15" s="18">
-        <f t="shared" si="2"/>
-        <v>3.9999999999999758E-4</v>
-      </c>
-      <c r="P15" s="22">
-        <f t="shared" si="3"/>
-        <v>1.7167381974248823E-2</v>
+      <c r="L15" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>欧元兑美元</v>
+      </c>
+      <c r="M15" s="26">
+        <f t="shared" si="0"/>
+        <v>1.2282</v>
+      </c>
+      <c r="N15" s="26">
+        <f t="shared" si="1"/>
+        <v>1.2259</v>
+      </c>
+      <c r="O15" s="27">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999687E-3</v>
+      </c>
+      <c r="P15" s="16">
+        <f t="shared" si="3"/>
+        <v>1.8761726078798994E-3</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C16">
-        <v>180.95</v>
+        <v>192.25</v>
       </c>
       <c r="D16" s="4">
         <v>193.21</v>
       </c>
-      <c r="E16" s="11">
-        <f t="shared" si="4"/>
-        <v>-12.260000000000019</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" si="5"/>
-        <v>-6.3454272553180577E-2</v>
+      <c r="E16" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.96000000000000796</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="5"/>
+        <v>-4.9686869209668643E-3</v>
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
@@ -1746,145 +1741,145 @@
       <c r="I16">
         <v>13</v>
       </c>
-      <c r="L16" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>澳元兑美元</v>
-      </c>
-      <c r="M16" s="17">
-        <f t="shared" si="0"/>
-        <v>0.77739999999999998</v>
-      </c>
-      <c r="N16" s="17">
-        <f t="shared" si="1"/>
-        <v>0.76929999999999998</v>
-      </c>
-      <c r="O16" s="18">
-        <f t="shared" si="2"/>
-        <v>8.0999999999999961E-3</v>
-      </c>
-      <c r="P16" s="22">
-        <f t="shared" si="3"/>
-        <v>1.052905238528532E-2</v>
+      <c r="L16" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>美玉米05</v>
+      </c>
+      <c r="M16" s="22">
+        <f t="shared" si="0"/>
+        <v>388.7</v>
+      </c>
+      <c r="N16" s="22">
+        <f t="shared" si="1"/>
+        <v>388.2</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="16">
+        <f t="shared" si="3"/>
+        <v>1.2879958784131891E-3</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>49</v>
+      <c r="B17" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C17">
-        <v>1274.9100000000001</v>
+        <v>1337.3</v>
       </c>
       <c r="D17" s="4">
         <v>1339.8</v>
       </c>
-      <c r="E17" s="11">
-        <f t="shared" si="4"/>
-        <v>-64.889999999999873</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="5"/>
-        <v>-4.8432601880877647E-2</v>
+      <c r="E17" s="9">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.8659501418122107E-3</v>
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I17">
         <v>14</v>
       </c>
-      <c r="L17" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>LME电锌</v>
-      </c>
-      <c r="M17" s="26">
-        <f t="shared" si="0"/>
-        <v>3244.5</v>
-      </c>
-      <c r="N17" s="26">
-        <f t="shared" si="1"/>
-        <v>3260.9</v>
-      </c>
-      <c r="O17" s="18">
-        <f t="shared" si="2"/>
-        <v>-16.400000000000091</v>
-      </c>
-      <c r="P17" s="22">
-        <f t="shared" si="3"/>
-        <v>-5.0292863933270237E-3</v>
+      <c r="L17" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>美元指数</v>
+      </c>
+      <c r="M17" s="28">
+        <f t="shared" si="0"/>
+        <v>90.135599999999997</v>
+      </c>
+      <c r="N17" s="28">
+        <f t="shared" si="1"/>
+        <v>90.21</v>
+      </c>
+      <c r="O17" s="29">
+        <f t="shared" si="2"/>
+        <v>-7.4399999999997135E-2</v>
+      </c>
+      <c r="P17" s="17">
+        <f t="shared" si="3"/>
+        <v>-8.2474226804120539E-4</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>50</v>
+      <c r="B18" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C18">
-        <v>16.79</v>
+        <v>16.364999999999998</v>
       </c>
       <c r="D18" s="4">
         <v>16.420000000000002</v>
       </c>
-      <c r="E18" s="11">
-        <f t="shared" si="4"/>
-        <v>0.36999999999999744</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" si="5"/>
-        <v>2.2533495736906054E-2</v>
+      <c r="E18" s="9">
+        <f t="shared" si="4"/>
+        <v>-5.5000000000003268E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="5"/>
+        <v>-3.3495736906213923E-3</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I18">
         <v>15</v>
       </c>
-      <c r="L18" s="16" t="str">
+      <c r="L18" s="6" t="str">
         <f t="shared" si="7"/>
         <v>LME电铜</v>
       </c>
-      <c r="M18" s="31">
-        <f t="shared" si="0"/>
-        <v>6654</v>
-      </c>
-      <c r="N18" s="31">
+      <c r="M18" s="25">
+        <f t="shared" si="0"/>
+        <v>6754.5</v>
+      </c>
+      <c r="N18" s="25">
         <f t="shared" si="1"/>
         <v>6764</v>
       </c>
-      <c r="O18" s="18">
-        <f t="shared" si="2"/>
-        <v>-110</v>
-      </c>
-      <c r="P18" s="22">
-        <f t="shared" si="3"/>
-        <v>-1.6262566528681254E-2</v>
+      <c r="O18" s="29">
+        <f t="shared" si="2"/>
+        <v>-9.5</v>
+      </c>
+      <c r="P18" s="17">
+        <f t="shared" si="3"/>
+        <v>-1.4044943820224719E-3</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>56</v>
+      <c r="B19" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C19">
-        <v>49.84</v>
+        <v>61.88</v>
       </c>
       <c r="D19" s="4">
         <v>63.25</v>
       </c>
-      <c r="E19" s="11">
-        <f t="shared" si="4"/>
-        <v>-13.409999999999997</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="5"/>
-        <v>-0.21201581027667979</v>
+      <c r="E19" s="9">
+        <f t="shared" si="4"/>
+        <v>-1.3699999999999974</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="5"/>
+        <v>-2.1660079051383358E-2</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
@@ -1893,390 +1888,390 @@
       <c r="I19">
         <v>16</v>
       </c>
-      <c r="L19" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>标普500</v>
-      </c>
-      <c r="M19" s="26">
-        <f t="shared" si="0"/>
-        <v>2549.33</v>
-      </c>
-      <c r="N19" s="26">
-        <f t="shared" si="1"/>
-        <v>2614.4499999999998</v>
-      </c>
-      <c r="O19" s="18">
-        <f t="shared" si="2"/>
-        <v>-65.119999999999891</v>
-      </c>
-      <c r="P19" s="22">
-        <f t="shared" si="3"/>
-        <v>-2.4907724377976209E-2</v>
+      <c r="L19" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>COMEX金</v>
+      </c>
+      <c r="M19" s="25">
+        <f t="shared" si="0"/>
+        <v>1337.3</v>
+      </c>
+      <c r="N19" s="25">
+        <f t="shared" si="1"/>
+        <v>1339.8</v>
+      </c>
+      <c r="O19" s="29">
+        <f t="shared" si="2"/>
+        <v>-2.5</v>
+      </c>
+      <c r="P19" s="17">
+        <f t="shared" si="3"/>
+        <v>-1.8659501418122107E-3</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>57</v>
+      <c r="B20" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C20">
-        <v>983.5</v>
+        <v>1034.7</v>
       </c>
       <c r="D20" s="4">
         <v>1039.5</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" si="4"/>
-        <v>-56</v>
-      </c>
-      <c r="F20" s="9">
-        <f t="shared" si="5"/>
-        <v>-5.387205387205387E-2</v>
+      <c r="E20" s="9">
+        <f t="shared" si="4"/>
+        <v>-4.7999999999999545</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="5"/>
+        <v>-4.6176046176045742E-3</v>
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20">
         <v>17</v>
       </c>
-      <c r="L20" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>日经225</v>
-      </c>
-      <c r="M20" s="26">
-        <f t="shared" si="0"/>
-        <v>20690.71</v>
-      </c>
-      <c r="N20" s="26">
-        <f t="shared" si="1"/>
-        <v>21319.55</v>
-      </c>
-      <c r="O20" s="18">
-        <f t="shared" si="2"/>
-        <v>-628.84000000000015</v>
-      </c>
-      <c r="P20" s="22">
-        <f t="shared" si="3"/>
-        <v>-2.949593213740441E-2</v>
+      <c r="L20" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>澳元兑美元</v>
+      </c>
+      <c r="M20" s="28">
+        <f t="shared" si="0"/>
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="N20" s="28">
+        <f t="shared" si="1"/>
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="O20" s="29">
+        <f t="shared" si="2"/>
+        <v>-1.7000000000000348E-3</v>
+      </c>
+      <c r="P20" s="17">
+        <f t="shared" si="3"/>
+        <v>-2.2098011178994345E-3</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>58</v>
+      <c r="B21" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C21">
-        <v>321.60000000000002</v>
+        <v>386.5</v>
       </c>
       <c r="D21" s="4">
         <v>380.5</v>
       </c>
-      <c r="E21" s="11">
-        <f t="shared" si="4"/>
-        <v>-58.899999999999977</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="5"/>
-        <v>-0.15479632063074897</v>
+      <c r="E21" s="9">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="5"/>
+        <v>1.5768725361366621E-2</v>
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>18</v>
       </c>
-      <c r="L21" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>恒指</v>
-      </c>
-      <c r="M21" s="26">
-        <f t="shared" si="0"/>
-        <v>28458.04</v>
-      </c>
-      <c r="N21" s="26">
-        <f t="shared" si="1"/>
-        <v>29686.76</v>
-      </c>
-      <c r="O21" s="18">
-        <f t="shared" si="2"/>
-        <v>-1228.7199999999975</v>
-      </c>
-      <c r="P21" s="22">
-        <f t="shared" si="3"/>
-        <v>-4.138949484551354E-2</v>
+      <c r="L21" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>COMEX银</v>
+      </c>
+      <c r="M21" s="25">
+        <f t="shared" si="0"/>
+        <v>16.364999999999998</v>
+      </c>
+      <c r="N21" s="25">
+        <f t="shared" si="1"/>
+        <v>16.420000000000002</v>
+      </c>
+      <c r="O21" s="29">
+        <f t="shared" si="2"/>
+        <v>-5.5000000000003268E-2</v>
+      </c>
+      <c r="P21" s="17">
+        <f t="shared" si="3"/>
+        <v>-3.3495736906213923E-3</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>59</v>
+      <c r="B22" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C22">
-        <v>33.19</v>
+        <v>31.57</v>
       </c>
       <c r="D22" s="4">
         <v>32.32</v>
       </c>
-      <c r="E22" s="11">
-        <f t="shared" si="4"/>
-        <v>0.86999999999999744</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" si="5"/>
-        <v>2.6918316831683088E-2</v>
+      <c r="E22" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.75</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="5"/>
+        <v>-2.3205445544554455E-2</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I22">
         <v>19</v>
       </c>
-      <c r="L22" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>欧元兑美元</v>
-      </c>
-      <c r="M22" s="26">
-        <f t="shared" si="0"/>
-        <v>1.1733</v>
-      </c>
-      <c r="N22" s="26">
-        <f t="shared" si="1"/>
-        <v>1.2259</v>
-      </c>
-      <c r="O22" s="18">
-        <f t="shared" si="2"/>
-        <v>-5.259999999999998E-2</v>
-      </c>
-      <c r="P22" s="22">
-        <f t="shared" si="3"/>
-        <v>-4.2907251814993053E-2</v>
+      <c r="L22" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>纳指</v>
+      </c>
+      <c r="M22" s="25">
+        <f t="shared" si="0"/>
+        <v>6915.11</v>
+      </c>
+      <c r="N22" s="25">
+        <f t="shared" si="1"/>
+        <v>6941.28</v>
+      </c>
+      <c r="O22" s="29">
+        <f t="shared" si="2"/>
+        <v>-26.170000000000073</v>
+      </c>
+      <c r="P22" s="17">
+        <f t="shared" si="3"/>
+        <v>-3.7701980038263943E-3</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>60</v>
+      <c r="B23" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C23">
-        <v>349.7</v>
+        <v>388.7</v>
       </c>
       <c r="D23" s="4">
         <v>388.2</v>
       </c>
-      <c r="E23" s="11">
-        <f t="shared" si="4"/>
-        <v>-38.5</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="5"/>
-        <v>-9.9175682637815565E-2</v>
+      <c r="E23" s="9">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="5"/>
+        <v>1.2879958784131891E-3</v>
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I23">
         <v>20</v>
       </c>
-      <c r="L23" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>伦敦现货金</v>
-      </c>
-      <c r="M23" s="27">
-        <f t="shared" si="0"/>
-        <v>1274.9100000000001</v>
-      </c>
-      <c r="N23" s="27">
-        <f t="shared" si="1"/>
-        <v>1339.8</v>
-      </c>
-      <c r="O23" s="28">
-        <f t="shared" si="2"/>
-        <v>-64.889999999999873</v>
-      </c>
-      <c r="P23" s="22">
-        <f t="shared" si="3"/>
-        <v>-4.8432601880877647E-2</v>
+      <c r="L23" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>标普500</v>
+      </c>
+      <c r="M23" s="25">
+        <f t="shared" si="0"/>
+        <v>2604.4699999999998</v>
+      </c>
+      <c r="N23" s="25">
+        <f t="shared" si="1"/>
+        <v>2614.4499999999998</v>
+      </c>
+      <c r="O23" s="29">
+        <f t="shared" si="2"/>
+        <v>-9.9800000000000182</v>
+      </c>
+      <c r="P23" s="17">
+        <f t="shared" si="3"/>
+        <v>-3.8172464571898561E-3</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>61</v>
+      <c r="B24" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C24">
-        <v>2731</v>
+        <v>2504</v>
       </c>
       <c r="D24" s="4">
         <v>2440</v>
       </c>
-      <c r="E24" s="11">
-        <f t="shared" si="4"/>
-        <v>291</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" si="5"/>
-        <v>0.11926229508196722</v>
+      <c r="E24" s="9">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="5"/>
+        <v>2.6229508196721311E-2</v>
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>21</v>
       </c>
       <c r="L24" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>纳指</v>
-      </c>
-      <c r="M24" s="8">
-        <f t="shared" si="0"/>
-        <v>6590.18</v>
-      </c>
-      <c r="N24" s="8">
-        <f t="shared" si="1"/>
-        <v>6941.28</v>
-      </c>
-      <c r="O24" s="15">
-        <f t="shared" si="2"/>
-        <v>-351.09999999999945</v>
-      </c>
-      <c r="P24" s="23">
-        <f t="shared" si="3"/>
-        <v>-5.0581448954659582E-2</v>
+        <v>道指</v>
+      </c>
+      <c r="M24" s="25">
+        <f t="shared" si="0"/>
+        <v>23932.76</v>
+      </c>
+      <c r="N24" s="25">
+        <f t="shared" si="1"/>
+        <v>24033.360000000001</v>
+      </c>
+      <c r="O24" s="29">
+        <f t="shared" si="2"/>
+        <v>-100.60000000000218</v>
+      </c>
+      <c r="P24" s="17">
+        <f t="shared" si="3"/>
+        <v>-4.1858483374776637E-3</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>62</v>
+      <c r="B25" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C25">
-        <v>13.98</v>
+        <v>12.33</v>
       </c>
       <c r="D25" s="4">
         <v>12.39</v>
       </c>
-      <c r="E25" s="11">
-        <f t="shared" si="4"/>
-        <v>1.5899999999999999</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="5"/>
-        <v>0.12832929782082322</v>
+      <c r="E25" s="9">
+        <f t="shared" si="4"/>
+        <v>-6.0000000000000497E-2</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="5"/>
+        <v>-4.8426150121065777E-3</v>
       </c>
       <c r="H25">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I25">
         <v>22</v>
       </c>
       <c r="L25" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>道指</v>
-      </c>
-      <c r="M25" s="8">
-        <f t="shared" si="0"/>
-        <v>22773.67</v>
-      </c>
-      <c r="N25" s="8">
-        <f t="shared" si="1"/>
-        <v>24033.360000000001</v>
-      </c>
-      <c r="O25" s="15">
-        <f t="shared" si="2"/>
-        <v>-1259.6900000000023</v>
-      </c>
-      <c r="P25" s="23">
-        <f t="shared" si="3"/>
-        <v>-5.241422755702916E-2</v>
+        <v>美豆05</v>
+      </c>
+      <c r="M25" s="25">
+        <f t="shared" si="0"/>
+        <v>1034.7</v>
+      </c>
+      <c r="N25" s="25">
+        <f t="shared" si="1"/>
+        <v>1039.5</v>
+      </c>
+      <c r="O25" s="29">
+        <f t="shared" si="2"/>
+        <v>-4.7999999999999545</v>
+      </c>
+      <c r="P25" s="17">
+        <f t="shared" si="3"/>
+        <v>-4.6176046176045742E-3</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>63</v>
+      <c r="B26" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C26">
-        <v>68.58</v>
+        <v>82.69</v>
       </c>
       <c r="D26" s="4">
         <v>82.13</v>
       </c>
-      <c r="E26" s="11">
-        <f t="shared" si="4"/>
-        <v>-13.549999999999997</v>
-      </c>
-      <c r="F26" s="9">
-        <f t="shared" si="5"/>
-        <v>-0.16498234506270545</v>
+      <c r="E26" s="9">
+        <f t="shared" si="4"/>
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="5"/>
+        <v>6.8184585413369331E-3</v>
       </c>
       <c r="H26">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I26">
         <v>23</v>
       </c>
       <c r="L26" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>美豆05</v>
-      </c>
-      <c r="M26" s="7">
-        <f t="shared" si="0"/>
-        <v>983.5</v>
-      </c>
-      <c r="N26" s="7">
-        <f t="shared" si="1"/>
-        <v>1039.5</v>
-      </c>
-      <c r="O26" s="15">
-        <f t="shared" si="2"/>
-        <v>-56</v>
-      </c>
-      <c r="P26" s="23">
-        <f t="shared" si="3"/>
-        <v>-5.387205387205387E-2</v>
+        <v>原糖05</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" si="0"/>
+        <v>12.33</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" si="1"/>
+        <v>12.39</v>
+      </c>
+      <c r="O26" s="29">
+        <f t="shared" si="2"/>
+        <v>-6.0000000000000497E-2</v>
+      </c>
+      <c r="P26" s="17">
+        <f t="shared" si="3"/>
+        <v>-4.8426150121065777E-3</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C27">
-        <v>6654</v>
+        <v>6754.5</v>
       </c>
       <c r="D27" s="4">
         <v>6764</v>
       </c>
-      <c r="E27" s="11">
-        <f t="shared" si="4"/>
-        <v>-110</v>
-      </c>
-      <c r="F27" s="9">
-        <f t="shared" si="5"/>
-        <v>-1.6262566528681254E-2</v>
+      <c r="E27" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.5</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.4044943820224719E-3</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
@@ -2289,243 +2284,243 @@
         <f t="shared" si="7"/>
         <v>CRB指数</v>
       </c>
-      <c r="M27" s="29">
-        <f t="shared" si="0"/>
-        <v>180.95</v>
-      </c>
-      <c r="N27" s="29">
+      <c r="M27" s="25">
+        <f t="shared" si="0"/>
+        <v>192.25</v>
+      </c>
+      <c r="N27" s="25">
         <f t="shared" si="1"/>
         <v>193.21</v>
       </c>
-      <c r="O27" s="15">
-        <f t="shared" si="2"/>
-        <v>-12.260000000000019</v>
-      </c>
-      <c r="P27" s="23">
-        <f t="shared" si="3"/>
-        <v>-6.3454272553180577E-2</v>
+      <c r="O27" s="29">
+        <f t="shared" si="2"/>
+        <v>-0.96000000000000796</v>
+      </c>
+      <c r="P27" s="17">
+        <f t="shared" si="3"/>
+        <v>-4.9686869209668643E-3</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C28">
-        <v>10575</v>
+        <v>13265</v>
       </c>
       <c r="D28" s="4">
         <v>13435</v>
       </c>
-      <c r="E28" s="11">
-        <f t="shared" si="4"/>
-        <v>-2860</v>
-      </c>
-      <c r="F28" s="9">
-        <f t="shared" si="5"/>
-        <v>-0.21287681429103089</v>
+      <c r="E28" s="9">
+        <f t="shared" si="4"/>
+        <v>-170</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.2653516933382954E-2</v>
       </c>
       <c r="H28">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I28">
         <v>25</v>
       </c>
       <c r="L28" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>美玉米05</v>
-      </c>
-      <c r="M28" s="8">
-        <f t="shared" si="0"/>
-        <v>349.7</v>
-      </c>
-      <c r="N28" s="8">
-        <f t="shared" si="1"/>
-        <v>388.2</v>
-      </c>
-      <c r="O28" s="15">
-        <f t="shared" si="2"/>
-        <v>-38.5</v>
-      </c>
-      <c r="P28" s="23">
-        <f t="shared" si="3"/>
-        <v>-9.9175682637815565E-2</v>
+        <v>LME电锌</v>
+      </c>
+      <c r="M28" s="25">
+        <f t="shared" si="0"/>
+        <v>3241.4</v>
+      </c>
+      <c r="N28" s="25">
+        <f t="shared" si="1"/>
+        <v>3260.9</v>
+      </c>
+      <c r="O28" s="29">
+        <f t="shared" si="2"/>
+        <v>-19.5</v>
+      </c>
+      <c r="P28" s="17">
+        <f t="shared" si="3"/>
+        <v>-5.9799441871875858E-3</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C29">
-        <v>2146.5</v>
+        <v>2054</v>
       </c>
       <c r="D29" s="4">
         <v>1991.5</v>
       </c>
-      <c r="E29" s="11">
-        <f t="shared" si="4"/>
-        <v>155</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="5"/>
-        <v>7.7830780818478537E-2</v>
+      <c r="E29" s="9">
+        <f t="shared" si="4"/>
+        <v>62.5</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="5"/>
+        <v>3.1383379362289729E-2</v>
       </c>
       <c r="H29">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>26</v>
       </c>
       <c r="L29" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>美豆粕05</v>
-      </c>
-      <c r="M29" s="29">
-        <f t="shared" si="0"/>
-        <v>321.60000000000002</v>
-      </c>
-      <c r="N29" s="29">
-        <f t="shared" si="1"/>
-        <v>380.5</v>
-      </c>
-      <c r="O29" s="15">
-        <f t="shared" si="2"/>
-        <v>-58.899999999999977</v>
-      </c>
-      <c r="P29" s="23">
-        <f t="shared" si="3"/>
-        <v>-0.15479632063074897</v>
+        <v>美10年期国债收益率</v>
+      </c>
+      <c r="M29" s="17">
+        <f t="shared" si="0"/>
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="N29" s="17">
+        <f t="shared" si="1"/>
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="O29" s="17">
+        <f t="shared" si="2"/>
+        <v>-2.0000000000000226E-4</v>
+      </c>
+      <c r="P29" s="17">
+        <f t="shared" si="3"/>
+        <v>-7.1684587813620878E-3</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C30">
-        <v>3244.5</v>
+        <v>3241.4</v>
       </c>
       <c r="D30" s="4">
         <v>3260.9</v>
       </c>
-      <c r="E30" s="11">
-        <f t="shared" si="4"/>
-        <v>-16.400000000000091</v>
-      </c>
-      <c r="F30" s="9">
-        <f t="shared" si="5"/>
-        <v>-5.0292863933270237E-3</v>
+      <c r="E30" s="9">
+        <f t="shared" si="4"/>
+        <v>-19.5</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="5"/>
+        <v>-5.9799441871875858E-3</v>
       </c>
       <c r="H30">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I30">
         <v>27</v>
       </c>
       <c r="L30" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>美棉05</v>
-      </c>
-      <c r="M30" s="8">
-        <f t="shared" si="0"/>
-        <v>68.58</v>
-      </c>
-      <c r="N30" s="8">
-        <f t="shared" si="1"/>
-        <v>82.13</v>
-      </c>
-      <c r="O30" s="15">
-        <f t="shared" si="2"/>
-        <v>-13.549999999999997</v>
-      </c>
-      <c r="P30" s="23">
-        <f t="shared" si="3"/>
-        <v>-0.16498234506270545</v>
+        <v>布油06</v>
+      </c>
+      <c r="M30" s="25">
+        <f t="shared" si="0"/>
+        <v>67.03</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" si="1"/>
+        <v>67.86</v>
+      </c>
+      <c r="O30" s="29">
+        <f t="shared" si="2"/>
+        <v>-0.82999999999999829</v>
+      </c>
+      <c r="P30" s="17">
+        <f t="shared" si="3"/>
+        <v>-1.2231063955201861E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>65</v>
+      <c r="B31" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C31">
-        <v>207.4</v>
+        <v>179.4</v>
       </c>
       <c r="D31" s="4">
         <v>178.6</v>
       </c>
-      <c r="E31" s="11">
-        <f t="shared" si="4"/>
-        <v>28.800000000000011</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" si="5"/>
-        <v>0.16125419932810758</v>
+      <c r="E31" s="9">
+        <f t="shared" si="4"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="5"/>
+        <v>4.4792833146697171E-3</v>
       </c>
       <c r="H31">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I31">
         <v>28</v>
       </c>
       <c r="L31" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>布油01</v>
-      </c>
-      <c r="M31" s="8">
-        <f t="shared" si="0"/>
-        <v>55.42</v>
-      </c>
-      <c r="N31" s="8">
-        <f t="shared" si="1"/>
-        <v>67.86</v>
-      </c>
-      <c r="O31" s="15">
-        <f t="shared" si="2"/>
-        <v>-12.439999999999998</v>
-      </c>
-      <c r="P31" s="23">
-        <f t="shared" si="3"/>
-        <v>-0.18331859711170054</v>
+        <v>LME电镍</v>
+      </c>
+      <c r="M31" s="25">
+        <f t="shared" si="0"/>
+        <v>13265</v>
+      </c>
+      <c r="N31" s="25">
+        <f t="shared" si="1"/>
+        <v>13435</v>
+      </c>
+      <c r="O31" s="29">
+        <f t="shared" si="2"/>
+        <v>-170</v>
+      </c>
+      <c r="P31" s="17">
+        <f t="shared" si="3"/>
+        <v>-1.2653516933382954E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="24">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="D32" s="25">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="E32" s="11">
-        <f t="shared" si="4"/>
-        <v>3.9999999999999758E-4</v>
-      </c>
-      <c r="F32" s="9">
-        <f t="shared" si="5"/>
-        <v>1.7167381974248823E-2</v>
+      <c r="B32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="D32" s="19">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="4"/>
+        <v>-2.0000000000000226E-4</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="5"/>
+        <v>-7.1684587813620878E-3</v>
       </c>
       <c r="H32">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I32">
         <v>29</v>
@@ -2534,78 +2529,80 @@
         <f t="shared" si="7"/>
         <v>美原油05</v>
       </c>
-      <c r="M32" s="8">
-        <f t="shared" si="0"/>
-        <v>49.84</v>
-      </c>
-      <c r="N32" s="8">
+      <c r="M32" s="25">
+        <f t="shared" si="0"/>
+        <v>61.88</v>
+      </c>
+      <c r="N32" s="25">
         <f t="shared" si="1"/>
         <v>63.25</v>
       </c>
-      <c r="O32" s="15">
-        <f t="shared" si="2"/>
-        <v>-13.409999999999997</v>
-      </c>
-      <c r="P32" s="23">
-        <f t="shared" si="3"/>
-        <v>-0.21201581027667979</v>
+      <c r="O32" s="29">
+        <f t="shared" si="2"/>
+        <v>-1.3699999999999974</v>
+      </c>
+      <c r="P32" s="17">
+        <f t="shared" si="3"/>
+        <v>-2.1660079051383358E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>51</v>
+      <c r="B33" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C33">
-        <v>55.42</v>
+        <v>67.03</v>
       </c>
       <c r="D33" s="4">
         <v>67.86</v>
       </c>
-      <c r="E33" s="11">
-        <f t="shared" si="4"/>
-        <v>-12.439999999999998</v>
-      </c>
-      <c r="F33" s="9">
-        <f t="shared" si="5"/>
-        <v>-0.18331859711170054</v>
+      <c r="E33" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.82999999999999829</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.2231063955201861E-2</v>
       </c>
       <c r="H33">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I33">
         <v>30</v>
       </c>
       <c r="L33" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LME电镍</v>
-      </c>
-      <c r="M33" s="8">
-        <f t="shared" si="0"/>
-        <v>10575</v>
-      </c>
-      <c r="N33" s="8">
-        <f t="shared" si="1"/>
-        <v>13435</v>
-      </c>
-      <c r="O33" s="15">
-        <f t="shared" si="2"/>
-        <v>-2860</v>
-      </c>
-      <c r="P33" s="23">
-        <f t="shared" si="3"/>
-        <v>-0.21287681429103089</v>
+        <v>美豆油05</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" si="0"/>
+        <v>31.57</v>
+      </c>
+      <c r="N33" s="25">
+        <f t="shared" si="1"/>
+        <v>32.32</v>
+      </c>
+      <c r="O33" s="29">
+        <f t="shared" si="2"/>
+        <v>-0.75</v>
+      </c>
+      <c r="P33" s="17">
+        <f t="shared" si="3"/>
+        <v>-2.3205445544554455E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
+      <c r="L34" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
